--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_CON_DIFF.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_CON_DIFF.xlsx
@@ -453,25 +453,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.6981727917583961</v>
+        <v>0.7484714652033114</v>
       </c>
       <c r="C2">
-        <v>9.618610834512085</v>
+        <v>33.8482574815652</v>
       </c>
       <c r="D2">
-        <v>1321.80831261541</v>
+        <v>1668.793212724136</v>
       </c>
       <c r="E2">
-        <v>131807.085853783</v>
+        <v>199521.2751395922</v>
       </c>
       <c r="F2">
-        <v>9569557.505625265</v>
+        <v>18828212.05595672</v>
       </c>
       <c r="G2">
-        <v>16576280143.90672</v>
+        <v>37785982911.24001</v>
       </c>
       <c r="H2">
-        <v>427770396320835.9</v>
+        <v>1410165815743714</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -479,25 +479,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7236712828916556</v>
+        <v>0.6998300239619539</v>
       </c>
       <c r="C3">
-        <v>3.588861844981083</v>
+        <v>29.27638233146019</v>
       </c>
       <c r="D3">
-        <v>400.5425363428246</v>
+        <v>513.5749039887279</v>
       </c>
       <c r="E3">
-        <v>31143.56740758473</v>
+        <v>50680.78356400538</v>
       </c>
       <c r="F3">
-        <v>2423438.207975895</v>
+        <v>4647295.854732187</v>
       </c>
       <c r="G3">
-        <v>5100441996.523789</v>
+        <v>12007879160.7819</v>
       </c>
       <c r="H3">
-        <v>170987854412259.1</v>
+        <v>587010965309421.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -505,25 +505,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6630521917659183</v>
+        <v>0.699491068333178</v>
       </c>
       <c r="C4">
-        <v>10.64005713796108</v>
+        <v>34.41017156535496</v>
       </c>
       <c r="D4">
-        <v>1431.198101730434</v>
+        <v>1822.021398519945</v>
       </c>
       <c r="E4">
-        <v>139166.3948560565</v>
+        <v>211562.098164686</v>
       </c>
       <c r="F4">
-        <v>9943859.856506608</v>
+        <v>19667379.56254216</v>
       </c>
       <c r="G4">
-        <v>16992507200.20211</v>
+        <v>38798178024.42425</v>
       </c>
       <c r="H4">
-        <v>434570150447998.5</v>
+        <v>1433013179791633</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -531,25 +531,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6590523744757956</v>
+        <v>0.5703222791555561</v>
       </c>
       <c r="C5">
-        <v>3.34436757689191</v>
+        <v>30.27576925938623</v>
       </c>
       <c r="D5">
-        <v>892.5895120310071</v>
+        <v>1018.038395667763</v>
       </c>
       <c r="E5">
-        <v>110860.7947951746</v>
+        <v>160237.4993842074</v>
       </c>
       <c r="F5">
-        <v>8557692.552893681</v>
+        <v>16875825.74089928</v>
       </c>
       <c r="G5">
-        <v>15729148644.5579</v>
+        <v>35937620393.91891</v>
       </c>
       <c r="H5">
-        <v>427373043652120.1</v>
+        <v>1396327342103562</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -557,25 +557,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8815335551174683</v>
+        <v>0.8877020412991593</v>
       </c>
       <c r="C6">
-        <v>6.487065868024282</v>
+        <v>28.19110881149735</v>
       </c>
       <c r="D6">
-        <v>461.1335276706649</v>
+        <v>621.0127084121173</v>
       </c>
       <c r="E6">
-        <v>35213.26980973173</v>
+        <v>57558.21492955724</v>
       </c>
       <c r="F6">
-        <v>2429978.691508563</v>
+        <v>4791721.657584624</v>
       </c>
       <c r="G6">
-        <v>4524545862.585286</v>
+        <v>10554398124.21799</v>
       </c>
       <c r="H6">
-        <v>159731525724454.2</v>
+        <v>535779194320910.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -583,25 +583,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5411603599399508</v>
+        <v>0.6646327975475445</v>
       </c>
       <c r="C7">
-        <v>0.5444523379475926</v>
+        <v>28.91359804756351</v>
       </c>
       <c r="D7">
-        <v>0.5505146368314914</v>
+        <v>54.94861344143851</v>
       </c>
       <c r="E7">
-        <v>29.52275086498626</v>
+        <v>4335.482842240131</v>
       </c>
       <c r="F7">
-        <v>5638.628977523175</v>
+        <v>482293.4133794098</v>
       </c>
       <c r="G7">
-        <v>50463520.78535768</v>
+        <v>1292964334.799403</v>
       </c>
       <c r="H7">
-        <v>2697550011090.025</v>
+        <v>66193307142749.42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -609,25 +609,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7463906234276863</v>
+        <v>0.8201838140663581</v>
       </c>
       <c r="C8">
-        <v>3.254304507412198</v>
+        <v>29.80785785109789</v>
       </c>
       <c r="D8">
-        <v>137.84342363183</v>
+        <v>206.8158176423964</v>
       </c>
       <c r="E8">
-        <v>16587.6114719928</v>
+        <v>27775.5852990267</v>
       </c>
       <c r="F8">
-        <v>1436676.023484043</v>
+        <v>3089957.108081071</v>
       </c>
       <c r="G8">
-        <v>3277312912.690239</v>
+        <v>8139888003.539444</v>
       </c>
       <c r="H8">
-        <v>113746299363429.1</v>
+        <v>412188113426947.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -635,25 +635,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7076758296336171</v>
+        <v>0.6830674722970614</v>
       </c>
       <c r="C9">
-        <v>3.421808804365317</v>
+        <v>29.34372483835668</v>
       </c>
       <c r="D9">
-        <v>470.9698688598104</v>
+        <v>596.269918181964</v>
       </c>
       <c r="E9">
-        <v>56158.15591630453</v>
+        <v>85253.8510114145</v>
       </c>
       <c r="F9">
-        <v>4696188.106584446</v>
+        <v>9156465.72864178</v>
       </c>
       <c r="G9">
-        <v>9732776964.620613</v>
+        <v>22094331867.46754</v>
       </c>
       <c r="H9">
-        <v>296854349485379.4</v>
+        <v>982541586209477.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -661,25 +661,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.570334273801189</v>
+        <v>0.5485796179552151</v>
       </c>
       <c r="C10">
-        <v>28.84009276205514</v>
+        <v>28.83278660104944</v>
       </c>
       <c r="D10">
-        <v>27.27806600193488</v>
+        <v>27.26031922785506</v>
       </c>
       <c r="E10">
-        <v>27.05933495004881</v>
+        <v>27.04544196444837</v>
       </c>
       <c r="F10">
-        <v>28.20065777378576</v>
+        <v>28.21125293898653</v>
       </c>
       <c r="G10">
-        <v>10049.60871272611</v>
+        <v>1261.12908964024</v>
       </c>
       <c r="H10">
-        <v>521121019.4808254</v>
+        <v>84539325.02215943</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_CON_DIFF.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_CON_DIFF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,10 +450,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.7484714652033114</v>
@@ -468,15 +474,18 @@
         <v>18828212.05595672</v>
       </c>
       <c r="G2">
+        <v>984459420.3467522</v>
+      </c>
+      <c r="H2">
         <v>37785982911.24001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1410165815743714</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.6998300239619539</v>
@@ -494,15 +503,18 @@
         <v>4647295.854732187</v>
       </c>
       <c r="G3">
+        <v>279671436.6734123</v>
+      </c>
+      <c r="H3">
         <v>12007879160.7819</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>587010965309421.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.699491068333178</v>
@@ -520,15 +532,18 @@
         <v>19667379.56254216</v>
       </c>
       <c r="G4">
+        <v>1017154738.478231</v>
+      </c>
+      <c r="H4">
         <v>38798178024.42425</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1433013179791633</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.5703222791555561</v>
@@ -546,15 +561,18 @@
         <v>16875825.74089928</v>
       </c>
       <c r="G5">
+        <v>919666473.7647499</v>
+      </c>
+      <c r="H5">
         <v>35937620393.91891</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1396327342103562</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.8877020412991593</v>
@@ -572,15 +590,18 @@
         <v>4791721.657584624</v>
       </c>
       <c r="G6">
+        <v>261122965.848243</v>
+      </c>
+      <c r="H6">
         <v>10554398124.21799</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>535779194320910.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0.6646327975475445</v>
@@ -598,15 +619,18 @@
         <v>482293.4133794098</v>
       </c>
       <c r="G7">
+        <v>29188227.75817989</v>
+      </c>
+      <c r="H7">
         <v>1292964334.799403</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>66193307142749.42</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.8201838140663581</v>
@@ -624,15 +648,18 @@
         <v>3089957.108081071</v>
       </c>
       <c r="G8">
+        <v>186453275.2533088</v>
+      </c>
+      <c r="H8">
         <v>8139888003.539444</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>412188113426947.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0.6830674722970614</v>
@@ -650,15 +677,18 @@
         <v>9156465.72864178</v>
       </c>
       <c r="G9">
+        <v>528262424.9802983</v>
+      </c>
+      <c r="H9">
         <v>22094331867.46754</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>982541586209477.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0.5485796179552151</v>
@@ -676,9 +706,12 @@
         <v>28.21125293898653</v>
       </c>
       <c r="G10">
+        <v>29.52513657142902</v>
+      </c>
+      <c r="H10">
         <v>1261.12908964024</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>84539325.02215943</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_CON_DIFF.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_CON_DIFF.xlsx
@@ -474,13 +474,13 @@
         <v>18828212.05595672</v>
       </c>
       <c r="G2">
-        <v>984459420.3467522</v>
+        <v>849585974.7623143</v>
       </c>
       <c r="H2">
-        <v>37785982911.24001</v>
+        <v>46128147165.71857</v>
       </c>
       <c r="I2">
-        <v>1410165815743714</v>
+        <v>1177234628194075</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -488,28 +488,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.6998300239619539</v>
+        <v>0.7074335935529131</v>
       </c>
       <c r="C3">
-        <v>29.27638233146019</v>
+        <v>29.2968893301947</v>
       </c>
       <c r="D3">
-        <v>513.5749039887279</v>
+        <v>515.8738629160657</v>
       </c>
       <c r="E3">
-        <v>50680.78356400538</v>
+        <v>50728.35286098456</v>
       </c>
       <c r="F3">
-        <v>4647295.854732187</v>
+        <v>4652938.886985654</v>
       </c>
       <c r="G3">
-        <v>279671436.6734123</v>
+        <v>241300287.4162372</v>
       </c>
       <c r="H3">
-        <v>12007879160.7819</v>
+        <v>14711932116.51295</v>
       </c>
       <c r="I3">
-        <v>587010965309421.9</v>
+        <v>486637300837981.1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.699491068333178</v>
+        <v>0.6994382448879282</v>
       </c>
       <c r="C4">
-        <v>34.41017156535496</v>
+        <v>34.413495310372</v>
       </c>
       <c r="D4">
-        <v>1822.021398519945</v>
+        <v>1822.124109082956</v>
       </c>
       <c r="E4">
-        <v>211562.098164686</v>
+        <v>211628.9445684948</v>
       </c>
       <c r="F4">
-        <v>19667379.56254216</v>
+        <v>19664540.92785762</v>
       </c>
       <c r="G4">
-        <v>1017154738.478231</v>
+        <v>878281275.2445639</v>
       </c>
       <c r="H4">
-        <v>38798178024.42425</v>
+        <v>47381874240.55646</v>
       </c>
       <c r="I4">
-        <v>1433013179791633</v>
+        <v>1195642070166485</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -561,13 +561,13 @@
         <v>16875825.74089928</v>
       </c>
       <c r="G5">
-        <v>919666473.7647499</v>
+        <v>796011138.9636092</v>
       </c>
       <c r="H5">
-        <v>35937620393.91891</v>
+        <v>43858732466.16466</v>
       </c>
       <c r="I5">
-        <v>1396327342103562</v>
+        <v>1153203812976251</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -575,28 +575,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.8877020412991593</v>
+        <v>0.7274922139810557</v>
       </c>
       <c r="C6">
-        <v>28.19110881149735</v>
+        <v>30.54165270518868</v>
       </c>
       <c r="D6">
-        <v>621.0127084121173</v>
+        <v>804.4784241064688</v>
       </c>
       <c r="E6">
-        <v>57558.21492955724</v>
+        <v>67650.91406843558</v>
       </c>
       <c r="F6">
-        <v>4791721.657584624</v>
+        <v>5925536.849115291</v>
       </c>
       <c r="G6">
-        <v>261122965.848243</v>
+        <v>290279923.7108551</v>
       </c>
       <c r="H6">
-        <v>10554398124.21799</v>
+        <v>16350848539.72966</v>
       </c>
       <c r="I6">
-        <v>535779194320910.2</v>
+        <v>423202772033612.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -619,13 +619,13 @@
         <v>482293.4133794098</v>
       </c>
       <c r="G7">
-        <v>29188227.75817989</v>
+        <v>25243545.10549158</v>
       </c>
       <c r="H7">
-        <v>1292964334.799403</v>
+        <v>1541935848.40369</v>
       </c>
       <c r="I7">
-        <v>66193307142749.42</v>
+        <v>54869063329978.05</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -648,13 +648,13 @@
         <v>3089957.108081071</v>
       </c>
       <c r="G8">
-        <v>186453275.2533088</v>
+        <v>160826311.8691058</v>
       </c>
       <c r="H8">
-        <v>8139888003.539444</v>
+        <v>9982603070.527473</v>
       </c>
       <c r="I8">
-        <v>412188113426947.1</v>
+        <v>340060298262874.4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -662,28 +662,28 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.6830674722970614</v>
+        <v>0.6889183596399426</v>
       </c>
       <c r="C9">
-        <v>29.34372483835668</v>
+        <v>29.35904219599299</v>
       </c>
       <c r="D9">
-        <v>596.269918181964</v>
+        <v>597.7100550895532</v>
       </c>
       <c r="E9">
-        <v>85253.8510114145</v>
+        <v>85313.40533540784</v>
       </c>
       <c r="F9">
-        <v>9156465.72864178</v>
+        <v>9165618.36345561</v>
       </c>
       <c r="G9">
-        <v>528262424.9802983</v>
+        <v>455451865.039818</v>
       </c>
       <c r="H9">
-        <v>22094331867.46754</v>
+        <v>27058168820.91214</v>
       </c>
       <c r="I9">
-        <v>982541586209477.8</v>
+        <v>817390885859121.2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -706,13 +706,13 @@
         <v>28.21125293898653</v>
       </c>
       <c r="G10">
-        <v>29.52513657142902</v>
+        <v>26.63349199135783</v>
       </c>
       <c r="H10">
-        <v>1261.12908964024</v>
+        <v>1570.67474124423</v>
       </c>
       <c r="I10">
-        <v>84539325.02215943</v>
+        <v>67958618.98401152</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_CON_DIFF.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_CON_DIFF.xlsx
@@ -633,28 +633,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.8201838140663581</v>
+        <v>0.671980650564856</v>
       </c>
       <c r="C8">
-        <v>29.80785785109789</v>
+        <v>28.9076813004957</v>
       </c>
       <c r="D8">
-        <v>206.8158176423964</v>
+        <v>54.92132823176864</v>
       </c>
       <c r="E8">
-        <v>27775.5852990267</v>
+        <v>4331.448889646987</v>
       </c>
       <c r="F8">
-        <v>3089957.108081071</v>
+        <v>479389.9575332087</v>
       </c>
       <c r="G8">
-        <v>160826311.8691058</v>
+        <v>24942430.48433685</v>
       </c>
       <c r="H8">
-        <v>9982603070.527473</v>
+        <v>1523777560.795277</v>
       </c>
       <c r="I8">
-        <v>340060298262874.4</v>
+        <v>53371990299098.23</v>
       </c>
     </row>
     <row r="9" spans="1:9">
